--- a/data/qna/영화학과.xlsx
+++ b/data/qna/영화학과.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,10 +436,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>학과</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>질문</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>내용</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>답변</t>
         </is>
@@ -448,10 +458,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>영화학과</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>정시 4.6인데 영화학과 가능한가요 ㅠㅠ</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>답변 없음</t>
         </is>
@@ -460,32 +480,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>등록금</t>
+          <t>영화학과</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>안녕하십니까 언제나 너의 곁에 we-deu💙
-동의대학교 입학 홍보대사 서희진입니다 
-영화학과 등록금에 대해 궁금하시군요!
-2023학년 신입생기준으로 
-1학년 1학기 : 3,824,000원
-1학년 2학기 ~4학년 2학기 : 3,704,000원 입니다!
-(학기당)
-더 궁금하신 점 있으시면 위듀카페 or 인그타그램
-카카오톡 오픈채팅을 통해 연락 주시면 빠르게 답변드리겠습니다.
-(카카오톡 오픈 채팅방에 동의대학교 입학홍보대사 서희진을 검색해주세요)
-💗여러분들의 반짝반짝 빛나는 꿈을 we-deu가 응원하겠습니다💗</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
           <t>수강 날짜 언제인가여ㅜㅜ</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>올해 23학번으로 입학하는데 수강신청 날짜랑 어디서 하는지 알려주세요 ㅠ</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>안녕하십니까, 언제나 너의 곁에 WE-DEU! 동의대학교 입학홍보대사 박라온입니다 :&gt;
 먼저 동의대학교에 입학하신 것을 진심으로 축하드리고 환영합니다!
@@ -500,13 +508,23 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>영화학과</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>영화에 관심이 있는데 영화학과 재학생들 답변 부탁 드려요 ㅜ</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>영화학과를 졸업하려면 어떻게 해야 하나요?</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>안녕하십니까, 언제나 너의 곁에 WE-DEU! 동의대학교 입학홍보대사 박라온입니다 :&gt;
 과거에는 연기 수업과 연기 전공도 있었지만 현재는 없어진 상태이고 연출 전공, 촬영 전공, 사운드 전공, 편집 전공이 있습니다.
@@ -520,13 +538,23 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>영화학과</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>안녕하세여 이번에 영화학과 23학번으로 입학하는 학생입니다 !</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>영화학과는 편집을 어디서 해요??</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>안녕하십니까, 언제나 너의 곁에 WE-DEU! 동의대학교 입학홍보대사 박라온입니다 :&gt;
 동의대학교 산학협력관 7층에 영화학과 전용 편집실이 마련되어 있습니다.
@@ -538,13 +566,23 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>영화학과</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>동의대 영화학과 장비들 뭐뭐 있나요?</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>영화학과에는 어떤 장비들이 있나요?</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>안녕하십니까, 언제나 너의 곁에 WE-DEU! 동의대학교 입학홍보대사 박라온입니다 :&gt;
 산학관 6층에 있는 영화학과 실습실에서 장비를 대여할 수 있습니다.
@@ -556,13 +594,23 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>영화학과</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>동의대 영화학과 질문이용</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>동의대 영화학과에서는 영화 촬영을 진행하나요? 그리고 연기도 배우나요?</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>안녕하십니까, 언제나 너의 곁에 WE-DEU! 동의대학교 입학홍보대사 박라온입니다 :&gt;
 매 학기마다 영화제작실습이라는 수업이 있습니다.
@@ -575,13 +623,23 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>영화학과</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>중국어</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>중국어 내신 반영할 수 있어요?</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>안녕하십니까, 언제나 너의 곁에 WE-DEU !
 동의대학교 입학홍보대사 김유정입니다♡〜 ˃́▿˂̀ 〜♡
@@ -601,13 +659,23 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>영화학과</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>작년 정시 추합 몇번까지 떨어졌었나요???</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>6번인데 가능성있나요</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>안녕하십니까 언제나 너의 곁에 WE-DEU 
 동의대학교 입학홍보대사 정건호입니다!
@@ -624,13 +692,23 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>영화학과</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>영화학과 정시전형</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 가능성 있을까요..?</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>안녕하십니까, 언제나 너의 곁에 WE-DEU! 동의대학교 입학홍보대사 김승현입니다!
 동의대학교 경영학과 정시전형에 대해 알려드리겠습니다.
@@ -643,73 +721,94 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>영화학과</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>전문대3년제 임상병리학과 vs 동의대 영화학과</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>동의대 추가 합격했는데 처음부터 가려고 한 전문대 임상병리가 맞을까요 아니면 그래도 조금 환경이 좋은 동의대를 가야할까요...</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>두 학과는 우선 수업도 매우 다르고 취업할 수 있는 방향이 아예 달라요. 질문자님이 하고싶은 곳으로 선택하라고 하고싶네요. 저라면 전문대 임상병리 추천합니다 우리 학교 그렇게 메리트 있지 않아요.</t>
+        </is>
+      </c>
+    </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>전문대3년제 임상병리학과 vs 동의대 영화학과</t>
+          <t>영화학과</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>두 학과는 우선 수업도 매우 다르고 취업할 수 있는 방향이 아예 달라요. 질문자님이 하고싶은 곳으로 선택하라고 하고싶네요. 저라면 전문대 임상병리 추천합니다 우리 학교 그렇게 메리트 있지 않아요.</t>
+          <t>선배님들은 몇차에 합격하셨나요..ㅠ</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>안녕하세요, 일단 대학생활에 관계 없는 질문 드린점 죄송합니다..
+다만 너무 궁금해서요.
+제가 특성화고 예비 1번인데 1차,2차,3차 .. 4차가 되도록 한명도 안빠져서요..
+작년에 7명이 충원되었다고 하는데 ㅠ 혹시 선배님들 몇차에 충원되었나요.. 원래 이렇게 충원자리 안나다가 6,7차에 우수수 빠지는건가요?</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>작년에 7명 충원이라고 했으면 이번엔 3,4명 정도만 충원된다고 잡고 봐야해요</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>선배님들은 몇차에 합격하셨나요..ㅠ</t>
+          <t>영화학과</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>작년에 7명 충원이라고 했으면 이번엔 3,4명 정도만 충원된다고 잡고 봐야해요</t>
+          <t>꼭 영화쪽이 아니라도 영상편집을 배우러 가도되나요.??</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>제가 영상편집쪽으로 가고싶은데
+다른곳은 멀기도하고 가기가힘든데
+동의대 영화학과를 가도 영상편집을 배울수있나요??</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>어떤 스타일의 영상편집을 원하시는진 모르겠지만 영상편집은 디지털 콘텐츠학과에서도 배워요! 촬영위주 보단 영상편집이 더 배우고싶다하면 디지털콘텐트학과가 더 잘어울리실 것 같네요</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>영화과 재수생</t>
+          <t>영화학과</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>어느학과든 재수생 한명씩은 꼭 있었던 거 같아요</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>영화과 남여 성비</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>답변 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>꼭 영화쪽이 아니라도 영상편집을 배우러 가도되나요.??</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>어떤 스타일의 영상편집을 원하시는진 모르겠지만 영상편집은 디지털 콘텐츠학과에서도 배워요! 촬영위주 보단 영상편집이 더 배우고싶다하면 디지털콘텐트학과가 더 잘어울리실 것 같네요</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
           <t>655456</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>영화학과 너무 가고싶은데 합격 못하겠죠ㅠㅠㅠ? 하ㅜㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>안녕하십니까♥ 언제나 너의 곁에 WE-DEU,
 동의대학교 입학홍보대사 임수연입니다 !
@@ -731,88 +830,92 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>영화학과</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>동의대 영화학과</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>취업 잘되나요???학교생활이랑 어디로 취업하는지 궁금합니다!!</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>유튜브 편집자나 현장 기술직으로 많이 취업합니다. 이 외에 콘텐츠회사나 영화사, 사운드 믹싱 회사 등은 본인 재량으로 외국어나 프리미어 외에 포토샵, 애팩, 오디션, 프로툴 등 학업과 병행하며 능력을 쌓으시면 됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>영화학과</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>예비 2번인데</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>예비 2번인데 빠질까요ㅠㅜ 너무 불안해요ㅜㅜㅜ 원래 예비 3번이었는데 1차에서 1명 빠졌어요</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>과마다 다르긴 한데 예비 2번이면 사실상 추합가능해요:)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>영화학과</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>도와주세요 너무 불안해요</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>안녕하세요 미래의 선배님들 저의 내신은 4.5 입니다 교과성적우수자 전형과 일반고교과전형으로 넣었습니다
+이번 경쟁이 3점대여서 저도 모르게 안심이 되지만 작년 입결이 평균 내신이 3.5정도 더라구요,, 저 여기 너무 가고싶어요 저 가능성 있을까요 저 동의대학교 영화학과에서 제 꿈의 첫 발을 꼭 내딛고 싶습니다 답변 부탁드립니다..ㅠㅠㅠ 바쁘신 와 중 오셔서 답 주셔서 감사합니다 선배님도 화이팅 나두 화이팅,,,ㅎ</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>가능합니다 너무 불안해 하지 마세요!!</t>
+        </is>
+      </c>
+    </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>동의대 영화학과</t>
+          <t>영화학과</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>유튜브 편집자나 현장 기술직으로 많이 취업합니다. 이 외에 콘텐츠회사나 영화사, 사운드 믹싱 회사 등은 본인 재량으로 외국어나 프리미어 외에 포토샵, 애팩, 오디션, 프로툴 등 학업과 병행하며 능력을 쌓으시면 됩니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>동의대 영화과</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>본인 영화학과는 아니지만 교양수강 통해 본 학과 교수님한 분 과 수업해봤는데 정말 좋았어요! 음.. 아무래도 컴퓨터 프로그램을 다루는 편집 기술배우는 학과라서 영화학과 아닐까요?</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>예비 2번인데</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>과마다 다르긴 한데 예비 2번이면 사실상 추합가능해요:)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>동의대 영화학과</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>답변 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>영화학과엔 동아리가 무엇이 있나요!!?</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>1. 연극동아리 
-2. 오퍼레이션 키노 
-3. 촬영 동아리
-4. 편집 동아리</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>도와주세요 너무 불안해요</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>가능합니다 너무 불안해 하지 마세요!!</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
           <t>수시 상담이요! ! ㅠㅠ</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>동의식 내신  4.5정도 나오는데 
+교과로 합격할까요??
+아니면 면접전형 넣어야되나여??</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>안녕하세요! 언제나 너의 곁에 ᴡᴇ ᴅᴇᴜ 동의대학교 입학홍보대사 이준아 입니다! 💙
 학생부 교과전형으로 영화학과 합격여부가 궁금하시군요!
@@ -829,81 +932,52 @@
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>영화학과</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>안녕하세요 동의대 영화과 지원하려고 합니다.</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>저는 일단 특성화고에서 디자인을 전공하고있고 현재 2학년입니다, 어릴적부터 영화감독이 무척 꿈이였지만 공부를 제대로 하지않아 인과응보로 결국 지금와서야 후회를 하고 있습니다, 많은 영화과 있지만 저는동의대 영화과 꼭 들어가고싶습니다, 
+일단 성적이 매우 낮습니다, 평균이 5등급 초반대로 그중 높은 등급성적은 사회과목입니다..., 정말 이런 성적에서 어딜 가야할지 도무지 모르겠지만 한번 꼭 지원해보고싶습니다,
+동의대 영화과 어떻게 들어갈수있는지 모든방법을 가르쳐주세요... 정말 간절히 원합니다.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>간절히 원하신다면 지금 작년 입결 성적 지원전형마다 둘러보시고 가장 질문자분 성적 커트라인에 근접하는 전형을 준비하시면 되어요</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>영화학과 취업 어떤가요</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>도망쳐   아직안늦었어 학원쌤한다 지원없다</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>영화학과 어떤가요 ?</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>답변 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>수능 5.12등급이면 붙을까요?</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>답변 없음</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>영화학과</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>영화학과 학교생활우수자전형 면접 질문</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>내일 면접 보러 가는데 혹시 생기부 질문 많이 하시나요?
+독서 활동 질문 하시는 지 궁금합니다.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>안녕하세요. 반갑습니다! 동의대학교 입학홍보대사 WE-DEU입니다😊😊
 에브리타임으로 문의주셨는데, 페이스북 wedeu890로 페이스북메세지 보내주시거나 인스타그램 we_deu로 DM 보내주시면 상세하게 답변도와드리겠습니다❤️
 동의대학교 입시에 관심가져주셔서 감사합니다💕</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>어떤가요?</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>1학년때는 기본적인 이론위주로 배워요.
-2학년때부터 본격적으로 실습위주일거에요
-촬영장에 가서 경험많이 쌓고 싶으시면 
-선배들과 친해지면 많이 갈 수 있을거에요
-분위기는 군기가 있는 편은 아니에요</t>
         </is>
       </c>
     </row>
